--- a/P9 Dataset 1.xlsx
+++ b/P9 Dataset 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Modul Pelatihan Spasial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research (eksternal dept)\pelatihan spasial (adj)\modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756535A-B158-41ED-AE1D-6B172036C953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7470"/>
+    <workbookView xWindow="1188" yWindow="840" windowWidth="9252" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Rincian</t>
+  </si>
+  <si>
+    <t>OLS</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SARMA</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>p-value of Rho</t>
+  </si>
+  <si>
+    <t>p-value of Lambda</t>
+  </si>
+  <si>
+    <t>Kenormalan(p-value)</t>
+  </si>
+  <si>
+    <t>Homoskedastisitas (p-value)</t>
+  </si>
+  <si>
+    <t>Kebebasan Sisaan(p-value)</t>
+  </si>
+  <si>
+    <t>pseudo-R2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,8 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,13 +384,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>651.17999999999995</v>
+      </c>
+      <c r="C2" s="1">
+        <v>623.58000000000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>627.55999999999995</v>
+      </c>
+      <c r="E2" s="1">
+        <v>620.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.24644079999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.47865849999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.42924659999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.59338109999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <v>4.1491E-7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.2200000000000001E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>5.2936999999999999E-8</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1208</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.4209999999999998E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22189999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.607E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.07E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.19589999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.12740000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.9219999999999994E-8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.8548</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.85719999999999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>